--- a/xlsx/currency-codes-iso-4217.xlsx
+++ b/xlsx/currency-codes-iso-4217.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="720">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -23,6 +23,9 @@
     <t xml:space="preserve">Definition</t>
   </si>
   <si>
+    <t xml:space="preserve">Numeric_Code</t>
+  </si>
+  <si>
     <t xml:space="preserve">AFN</t>
   </si>
   <si>
@@ -32,6 +35,9 @@
     <t xml:space="preserve">This code is for the Afghani used in Afghanistan</t>
   </si>
   <si>
+    <t xml:space="preserve">971</t>
+  </si>
+  <si>
     <t xml:space="preserve">EUR</t>
   </si>
   <si>
@@ -41,6 +47,9 @@
     <t xml:space="preserve">This code is for the Euro used in Åland Islands, Andorra, Austria, Belgium, Cyprus, Estonia, European Union, Finland, France, French Guiana, French Southern Territories (The), Germany, Greece, Guadeloupe, Holy See (The), Ireland, Italy, Latvia, Lithuania, Luxembourg, Malta, Martinique, Mayotte, Monaco, Montenegro, Netherlands (The), Portugal, Réunion, Saint Barthélemy, Saint Martin (French Part), Saint Pierre And Miquelon, San Marino, Slovakia, Slovenia, Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">978</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALL</t>
   </si>
   <si>
@@ -50,6 +59,9 @@
     <t xml:space="preserve">This code is for the Lek used in Albania</t>
   </si>
   <si>
+    <t xml:space="preserve">008</t>
+  </si>
+  <si>
     <t xml:space="preserve">DZD</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
     <t xml:space="preserve">This code is for the Algerian Dinar used in Algeria</t>
   </si>
   <si>
+    <t xml:space="preserve">012</t>
+  </si>
+  <si>
     <t xml:space="preserve">USD</t>
   </si>
   <si>
@@ -68,6 +83,9 @@
     <t xml:space="preserve">This code is for the US Dollar used in American Samoa, Bonaire, Sint Eustatius And Saba, British Indian Ocean Territory (The), Ecuador, El Salvador, Guam, Haiti, Marshall Islands (The), Micronesia (Federated States Of), Northern Mariana Islands (The), Palau, Panama, Puerto Rico, Timor-Leste, Turks And Caicos Islands (The), United States Minor Outlying Islands (The), United States Of America (The), Virgin Islands (British), Virgin Islands (U.s.)</t>
   </si>
   <si>
+    <t xml:space="preserve">840</t>
+  </si>
+  <si>
     <t xml:space="preserve">AOA</t>
   </si>
   <si>
@@ -77,6 +95,9 @@
     <t xml:space="preserve">This code is for the Kwanza used in Angola</t>
   </si>
   <si>
+    <t xml:space="preserve">973</t>
+  </si>
+  <si>
     <t xml:space="preserve">XCD</t>
   </si>
   <si>
@@ -86,6 +107,9 @@
     <t xml:space="preserve">This code is for East Caribbean Dollar</t>
   </si>
   <si>
+    <t xml:space="preserve">951</t>
+  </si>
+  <si>
     <t xml:space="preserve">ARS</t>
   </si>
   <si>
@@ -95,6 +119,9 @@
     <t xml:space="preserve">This code is for the Argentine Peso used in Argentina</t>
   </si>
   <si>
+    <t xml:space="preserve">032</t>
+  </si>
+  <si>
     <t xml:space="preserve">AMD</t>
   </si>
   <si>
@@ -104,6 +131,9 @@
     <t xml:space="preserve">This code is for the Armenian Dram used in Armenia</t>
   </si>
   <si>
+    <t xml:space="preserve">051</t>
+  </si>
+  <si>
     <t xml:space="preserve">AWG</t>
   </si>
   <si>
@@ -113,6 +143,9 @@
     <t xml:space="preserve">This code is for the Aruban Florin used in Aruba</t>
   </si>
   <si>
+    <t xml:space="preserve">533</t>
+  </si>
+  <si>
     <t xml:space="preserve">AUD</t>
   </si>
   <si>
@@ -122,6 +155,9 @@
     <t xml:space="preserve">This code is for the Australian Dollar used in Australia, Christmas Island, Cocos (Keeling) Islands (The), Heard Island And Mcdonald Islands, Kiribati, Nauru, Norfolk Island, Tuvalu</t>
   </si>
   <si>
+    <t xml:space="preserve">036</t>
+  </si>
+  <si>
     <t xml:space="preserve">AZN</t>
   </si>
   <si>
@@ -131,6 +167,9 @@
     <t xml:space="preserve">This code is for the Azerbaijan Manat used in Azerbaijan</t>
   </si>
   <si>
+    <t xml:space="preserve">944</t>
+  </si>
+  <si>
     <t xml:space="preserve">BSD</t>
   </si>
   <si>
@@ -140,6 +179,9 @@
     <t xml:space="preserve">This code is for the Bahamian Dollar used in Bahamas (The)</t>
   </si>
   <si>
+    <t xml:space="preserve">044</t>
+  </si>
+  <si>
     <t xml:space="preserve">BHD</t>
   </si>
   <si>
@@ -149,6 +191,9 @@
     <t xml:space="preserve">This code is for the Bahraini Dinar used in Bahrain</t>
   </si>
   <si>
+    <t xml:space="preserve">048</t>
+  </si>
+  <si>
     <t xml:space="preserve">BDT</t>
   </si>
   <si>
@@ -158,6 +203,9 @@
     <t xml:space="preserve">This code is for the Taka used in Bangladesh</t>
   </si>
   <si>
+    <t xml:space="preserve">050</t>
+  </si>
+  <si>
     <t xml:space="preserve">BBD</t>
   </si>
   <si>
@@ -167,6 +215,9 @@
     <t xml:space="preserve">This code is for the Barbados Dollar used in Barbados</t>
   </si>
   <si>
+    <t xml:space="preserve">052</t>
+  </si>
+  <si>
     <t xml:space="preserve">BYN</t>
   </si>
   <si>
@@ -176,6 +227,9 @@
     <t xml:space="preserve">This code is for the Belarusian Ruble used in Belarus</t>
   </si>
   <si>
+    <t xml:space="preserve">933</t>
+  </si>
+  <si>
     <t xml:space="preserve">BZD</t>
   </si>
   <si>
@@ -185,6 +239,9 @@
     <t xml:space="preserve">This code is for the Belize Dollar used in Belize</t>
   </si>
   <si>
+    <t xml:space="preserve">084</t>
+  </si>
+  <si>
     <t xml:space="preserve">XOF</t>
   </si>
   <si>
@@ -194,6 +251,9 @@
     <t xml:space="preserve">This code is for CFA Franc BCEAO</t>
   </si>
   <si>
+    <t xml:space="preserve">952</t>
+  </si>
+  <si>
     <t xml:space="preserve">BMD</t>
   </si>
   <si>
@@ -203,6 +263,9 @@
     <t xml:space="preserve">This code is for the Bermudian Dollar used in Bermuda</t>
   </si>
   <si>
+    <t xml:space="preserve">060</t>
+  </si>
+  <si>
     <t xml:space="preserve">INR</t>
   </si>
   <si>
@@ -212,6 +275,9 @@
     <t xml:space="preserve">This code is for the Indian Rupee used in Bhutan, India</t>
   </si>
   <si>
+    <t xml:space="preserve">356</t>
+  </si>
+  <si>
     <t xml:space="preserve">BTN</t>
   </si>
   <si>
@@ -221,6 +287,9 @@
     <t xml:space="preserve">This code is for the Ngultrum used in Bhutan</t>
   </si>
   <si>
+    <t xml:space="preserve">064</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOB</t>
   </si>
   <si>
@@ -230,6 +299,9 @@
     <t xml:space="preserve">This code is for the Boliviano used in Bolivia (Plurinational State Of)</t>
   </si>
   <si>
+    <t xml:space="preserve">068</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOV</t>
   </si>
   <si>
@@ -239,6 +311,9 @@
     <t xml:space="preserve">This code is for the Mvdol used in Bolivia (Plurinational State Of)</t>
   </si>
   <si>
+    <t xml:space="preserve">984</t>
+  </si>
+  <si>
     <t xml:space="preserve">BAM</t>
   </si>
   <si>
@@ -248,6 +323,9 @@
     <t xml:space="preserve">This code is for the Convertible Mark used in Bosnia And Herzegovina</t>
   </si>
   <si>
+    <t xml:space="preserve">977</t>
+  </si>
+  <si>
     <t xml:space="preserve">BWP</t>
   </si>
   <si>
@@ -257,6 +335,9 @@
     <t xml:space="preserve">This code is for the Pula used in Botswana</t>
   </si>
   <si>
+    <t xml:space="preserve">072</t>
+  </si>
+  <si>
     <t xml:space="preserve">NOK</t>
   </si>
   <si>
@@ -266,6 +347,9 @@
     <t xml:space="preserve">This code is for the Norwegian Krone used in Bouvet Island, Norway, Svalbard And Jan Mayen</t>
   </si>
   <si>
+    <t xml:space="preserve">578</t>
+  </si>
+  <si>
     <t xml:space="preserve">BRL</t>
   </si>
   <si>
@@ -275,6 +359,9 @@
     <t xml:space="preserve">This code is for the Brazilian Real used in Brazil</t>
   </si>
   <si>
+    <t xml:space="preserve">986</t>
+  </si>
+  <si>
     <t xml:space="preserve">BND</t>
   </si>
   <si>
@@ -284,6 +371,9 @@
     <t xml:space="preserve">This code is for the Brunei Dollar used in Brunei Darussalam</t>
   </si>
   <si>
+    <t xml:space="preserve">096</t>
+  </si>
+  <si>
     <t xml:space="preserve">BGN</t>
   </si>
   <si>
@@ -293,6 +383,9 @@
     <t xml:space="preserve">This code is for the Bulgarian Lev used in Bulgaria</t>
   </si>
   <si>
+    <t xml:space="preserve">975</t>
+  </si>
+  <si>
     <t xml:space="preserve">BIF</t>
   </si>
   <si>
@@ -302,6 +395,9 @@
     <t xml:space="preserve">This code is for the Burundi Franc used in Burundi</t>
   </si>
   <si>
+    <t xml:space="preserve">108</t>
+  </si>
+  <si>
     <t xml:space="preserve">CVE</t>
   </si>
   <si>
@@ -311,6 +407,9 @@
     <t xml:space="preserve">This code is for the Cabo Verde Escudo used in Cabo Verde</t>
   </si>
   <si>
+    <t xml:space="preserve">132</t>
+  </si>
+  <si>
     <t xml:space="preserve">KHR</t>
   </si>
   <si>
@@ -320,6 +419,9 @@
     <t xml:space="preserve">This code is for the Riel used in Cambodia</t>
   </si>
   <si>
+    <t xml:space="preserve">116</t>
+  </si>
+  <si>
     <t xml:space="preserve">XAF</t>
   </si>
   <si>
@@ -329,6 +431,9 @@
     <t xml:space="preserve">This code is for CFA Franc BEAC</t>
   </si>
   <si>
+    <t xml:space="preserve">950</t>
+  </si>
+  <si>
     <t xml:space="preserve">CAD</t>
   </si>
   <si>
@@ -338,6 +443,9 @@
     <t xml:space="preserve">This code is for the Canadian Dollar used in Canada</t>
   </si>
   <si>
+    <t xml:space="preserve">124</t>
+  </si>
+  <si>
     <t xml:space="preserve">KYD</t>
   </si>
   <si>
@@ -347,6 +455,9 @@
     <t xml:space="preserve">This code is for the Cayman Islands Dollar used in Cayman Islands (The)</t>
   </si>
   <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLP</t>
   </si>
   <si>
@@ -356,6 +467,9 @@
     <t xml:space="preserve">This code is for the Chilean Peso used in Chile</t>
   </si>
   <si>
+    <t xml:space="preserve">152</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLF</t>
   </si>
   <si>
@@ -365,6 +479,9 @@
     <t xml:space="preserve">This code is for the Unidad de Fomento used in Chile</t>
   </si>
   <si>
+    <t xml:space="preserve">990</t>
+  </si>
+  <si>
     <t xml:space="preserve">CNY</t>
   </si>
   <si>
@@ -374,6 +491,9 @@
     <t xml:space="preserve">This code is for the Yuan Renminbi used in China</t>
   </si>
   <si>
+    <t xml:space="preserve">156</t>
+  </si>
+  <si>
     <t xml:space="preserve">COP</t>
   </si>
   <si>
@@ -383,6 +503,9 @@
     <t xml:space="preserve">This code is for the Colombian Peso used in Colombia</t>
   </si>
   <si>
+    <t xml:space="preserve">170</t>
+  </si>
+  <si>
     <t xml:space="preserve">COU</t>
   </si>
   <si>
@@ -392,6 +515,9 @@
     <t xml:space="preserve">This code is for the Unidad de Valor Real used in Colombia</t>
   </si>
   <si>
+    <t xml:space="preserve">970</t>
+  </si>
+  <si>
     <t xml:space="preserve">KMF</t>
   </si>
   <si>
@@ -401,6 +527,9 @@
     <t xml:space="preserve">This code is for the Comorian Franc used in Comoros (The)</t>
   </si>
   <si>
+    <t xml:space="preserve">174</t>
+  </si>
+  <si>
     <t xml:space="preserve">CDF</t>
   </si>
   <si>
@@ -410,6 +539,9 @@
     <t xml:space="preserve">This code is for the Congolese Franc used in Congo (The Democratic Republic Of The)</t>
   </si>
   <si>
+    <t xml:space="preserve">976</t>
+  </si>
+  <si>
     <t xml:space="preserve">NZD</t>
   </si>
   <si>
@@ -419,6 +551,9 @@
     <t xml:space="preserve">This code is for the New Zealand Dollar used in Cook Islands (The), New Zealand, Niue, Pitcairn, Tokelau</t>
   </si>
   <si>
+    <t xml:space="preserve">554</t>
+  </si>
+  <si>
     <t xml:space="preserve">CRC</t>
   </si>
   <si>
@@ -428,6 +563,9 @@
     <t xml:space="preserve">This code is for the Costa Rican Colon used in Costa Rica</t>
   </si>
   <si>
+    <t xml:space="preserve">188</t>
+  </si>
+  <si>
     <t xml:space="preserve">HRK</t>
   </si>
   <si>
@@ -437,6 +575,9 @@
     <t xml:space="preserve">This code is for the Kuna used in Croatia</t>
   </si>
   <si>
+    <t xml:space="preserve">191</t>
+  </si>
+  <si>
     <t xml:space="preserve">CUP</t>
   </si>
   <si>
@@ -446,6 +587,9 @@
     <t xml:space="preserve">This code is for the Cuban Peso used in Cuba</t>
   </si>
   <si>
+    <t xml:space="preserve">192</t>
+  </si>
+  <si>
     <t xml:space="preserve">CUC</t>
   </si>
   <si>
@@ -455,6 +599,9 @@
     <t xml:space="preserve">This code is for the Peso Convertible used in Cuba</t>
   </si>
   <si>
+    <t xml:space="preserve">931</t>
+  </si>
+  <si>
     <t xml:space="preserve">ANG</t>
   </si>
   <si>
@@ -464,6 +611,9 @@
     <t xml:space="preserve">This code is for the Netherlands Antillean Guilder used in Curaçao, Sint Maarten (Dutch Part)</t>
   </si>
   <si>
+    <t xml:space="preserve">532</t>
+  </si>
+  <si>
     <t xml:space="preserve">CZK</t>
   </si>
   <si>
@@ -473,6 +623,9 @@
     <t xml:space="preserve">This code is for the Czech Koruna used in Czechia</t>
   </si>
   <si>
+    <t xml:space="preserve">203</t>
+  </si>
+  <si>
     <t xml:space="preserve">DKK</t>
   </si>
   <si>
@@ -482,6 +635,9 @@
     <t xml:space="preserve">This code is for the Danish Krone used in Denmark, Faroe Islands (The), Greenland</t>
   </si>
   <si>
+    <t xml:space="preserve">208</t>
+  </si>
+  <si>
     <t xml:space="preserve">DJF</t>
   </si>
   <si>
@@ -491,6 +647,9 @@
     <t xml:space="preserve">This code is for the Djibouti Franc used in Djibouti</t>
   </si>
   <si>
+    <t xml:space="preserve">262</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOP</t>
   </si>
   <si>
@@ -500,6 +659,9 @@
     <t xml:space="preserve">This code is for the Dominican Peso used in Dominican Republic (The)</t>
   </si>
   <si>
+    <t xml:space="preserve">214</t>
+  </si>
+  <si>
     <t xml:space="preserve">EGP</t>
   </si>
   <si>
@@ -509,6 +671,9 @@
     <t xml:space="preserve">This code is for the Egyptian Pound used in Egypt</t>
   </si>
   <si>
+    <t xml:space="preserve">818</t>
+  </si>
+  <si>
     <t xml:space="preserve">SVC</t>
   </si>
   <si>
@@ -518,6 +683,9 @@
     <t xml:space="preserve">This code is for the El Salvador Colon used in El Salvador</t>
   </si>
   <si>
+    <t xml:space="preserve">222</t>
+  </si>
+  <si>
     <t xml:space="preserve">ERN</t>
   </si>
   <si>
@@ -527,6 +695,9 @@
     <t xml:space="preserve">This code is for the Nakfa used in Eritrea</t>
   </si>
   <si>
+    <t xml:space="preserve">232</t>
+  </si>
+  <si>
     <t xml:space="preserve">ETB</t>
   </si>
   <si>
@@ -536,6 +707,9 @@
     <t xml:space="preserve">This code is for the Ethiopian Birr used in Ethiopia</t>
   </si>
   <si>
+    <t xml:space="preserve">230</t>
+  </si>
+  <si>
     <t xml:space="preserve">FKP</t>
   </si>
   <si>
@@ -545,6 +719,9 @@
     <t xml:space="preserve">This code is for the Falkland Islands Pound used in Falkland Islands (The) [Malvinas]</t>
   </si>
   <si>
+    <t xml:space="preserve">238</t>
+  </si>
+  <si>
     <t xml:space="preserve">FJD</t>
   </si>
   <si>
@@ -554,6 +731,9 @@
     <t xml:space="preserve">This code is for the Fiji Dollar used in Fiji</t>
   </si>
   <si>
+    <t xml:space="preserve">242</t>
+  </si>
+  <si>
     <t xml:space="preserve">XPF</t>
   </si>
   <si>
@@ -563,6 +743,9 @@
     <t xml:space="preserve">This code is for CFP Franc</t>
   </si>
   <si>
+    <t xml:space="preserve">953</t>
+  </si>
+  <si>
     <t xml:space="preserve">GMD</t>
   </si>
   <si>
@@ -572,6 +755,9 @@
     <t xml:space="preserve">This code is for the Dalasi used in Gambia (The)</t>
   </si>
   <si>
+    <t xml:space="preserve">270</t>
+  </si>
+  <si>
     <t xml:space="preserve">GEL</t>
   </si>
   <si>
@@ -581,6 +767,9 @@
     <t xml:space="preserve">This code is for the Lari used in Georgia</t>
   </si>
   <si>
+    <t xml:space="preserve">981</t>
+  </si>
+  <si>
     <t xml:space="preserve">GHS</t>
   </si>
   <si>
@@ -590,6 +779,9 @@
     <t xml:space="preserve">This code is for the Ghana Cedi used in Ghana</t>
   </si>
   <si>
+    <t xml:space="preserve">936</t>
+  </si>
+  <si>
     <t xml:space="preserve">GIP</t>
   </si>
   <si>
@@ -599,6 +791,9 @@
     <t xml:space="preserve">This code is for the Gibraltar Pound used in Gibraltar</t>
   </si>
   <si>
+    <t xml:space="preserve">292</t>
+  </si>
+  <si>
     <t xml:space="preserve">GTQ</t>
   </si>
   <si>
@@ -608,6 +803,9 @@
     <t xml:space="preserve">This code is for the Quetzal used in Guatemala</t>
   </si>
   <si>
+    <t xml:space="preserve">320</t>
+  </si>
+  <si>
     <t xml:space="preserve">GBP</t>
   </si>
   <si>
@@ -617,6 +815,9 @@
     <t xml:space="preserve">This code is for the Pound Sterling used in Guernsey, Isle Of Man, Jersey, United Kingdom Of Great Britain And Northern Ireland (The)</t>
   </si>
   <si>
+    <t xml:space="preserve">826</t>
+  </si>
+  <si>
     <t xml:space="preserve">GNF</t>
   </si>
   <si>
@@ -626,6 +827,9 @@
     <t xml:space="preserve">This code is for the Guinean Franc used in Guinea</t>
   </si>
   <si>
+    <t xml:space="preserve">324</t>
+  </si>
+  <si>
     <t xml:space="preserve">GYD</t>
   </si>
   <si>
@@ -635,6 +839,9 @@
     <t xml:space="preserve">This code is for the Guyana Dollar used in Guyana</t>
   </si>
   <si>
+    <t xml:space="preserve">328</t>
+  </si>
+  <si>
     <t xml:space="preserve">HTG</t>
   </si>
   <si>
@@ -644,6 +851,9 @@
     <t xml:space="preserve">This code is for the Gourde used in Haiti</t>
   </si>
   <si>
+    <t xml:space="preserve">332</t>
+  </si>
+  <si>
     <t xml:space="preserve">HNL</t>
   </si>
   <si>
@@ -653,6 +863,9 @@
     <t xml:space="preserve">This code is for the Lempira used in Honduras</t>
   </si>
   <si>
+    <t xml:space="preserve">340</t>
+  </si>
+  <si>
     <t xml:space="preserve">HKD</t>
   </si>
   <si>
@@ -662,6 +875,9 @@
     <t xml:space="preserve">This code is for the Hong Kong Dollar used in Hong Kong</t>
   </si>
   <si>
+    <t xml:space="preserve">344</t>
+  </si>
+  <si>
     <t xml:space="preserve">HUF</t>
   </si>
   <si>
@@ -671,6 +887,9 @@
     <t xml:space="preserve">This code is for the Forint used in Hungary</t>
   </si>
   <si>
+    <t xml:space="preserve">348</t>
+  </si>
+  <si>
     <t xml:space="preserve">ISK</t>
   </si>
   <si>
@@ -680,6 +899,9 @@
     <t xml:space="preserve">This code is for the Iceland Krona used in Iceland</t>
   </si>
   <si>
+    <t xml:space="preserve">352</t>
+  </si>
+  <si>
     <t xml:space="preserve">IDR</t>
   </si>
   <si>
@@ -689,6 +911,9 @@
     <t xml:space="preserve">This code is for the Rupiah used in Indonesia</t>
   </si>
   <si>
+    <t xml:space="preserve">360</t>
+  </si>
+  <si>
     <t xml:space="preserve">XDR</t>
   </si>
   <si>
@@ -698,6 +923,9 @@
     <t xml:space="preserve">This code is for SDR (Special Drawing Right)</t>
   </si>
   <si>
+    <t xml:space="preserve">960</t>
+  </si>
+  <si>
     <t xml:space="preserve">IRR</t>
   </si>
   <si>
@@ -707,6 +935,9 @@
     <t xml:space="preserve">This code is for the Iranian Rial used in Iran (Islamic Republic Of)</t>
   </si>
   <si>
+    <t xml:space="preserve">364</t>
+  </si>
+  <si>
     <t xml:space="preserve">IQD</t>
   </si>
   <si>
@@ -716,6 +947,9 @@
     <t xml:space="preserve">This code is for the Iraqi Dinar used in Iraq</t>
   </si>
   <si>
+    <t xml:space="preserve">368</t>
+  </si>
+  <si>
     <t xml:space="preserve">ILS</t>
   </si>
   <si>
@@ -725,6 +959,9 @@
     <t xml:space="preserve">This code is for the New Israeli Sheqel used in Israel</t>
   </si>
   <si>
+    <t xml:space="preserve">376</t>
+  </si>
+  <si>
     <t xml:space="preserve">JMD</t>
   </si>
   <si>
@@ -734,6 +971,9 @@
     <t xml:space="preserve">This code is for the Jamaican Dollar used in Jamaica</t>
   </si>
   <si>
+    <t xml:space="preserve">388</t>
+  </si>
+  <si>
     <t xml:space="preserve">JPY</t>
   </si>
   <si>
@@ -743,6 +983,9 @@
     <t xml:space="preserve">This code is for the Yen used in Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">392</t>
+  </si>
+  <si>
     <t xml:space="preserve">JOD</t>
   </si>
   <si>
@@ -752,6 +995,9 @@
     <t xml:space="preserve">This code is for the Jordanian Dinar used in Jordan</t>
   </si>
   <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
     <t xml:space="preserve">KZT</t>
   </si>
   <si>
@@ -761,6 +1007,9 @@
     <t xml:space="preserve">This code is for the Tenge used in Kazakhstan</t>
   </si>
   <si>
+    <t xml:space="preserve">398</t>
+  </si>
+  <si>
     <t xml:space="preserve">KES</t>
   </si>
   <si>
@@ -770,6 +1019,9 @@
     <t xml:space="preserve">This code is for the Kenyan Shilling used in Kenya</t>
   </si>
   <si>
+    <t xml:space="preserve">404</t>
+  </si>
+  <si>
     <t xml:space="preserve">KPW</t>
   </si>
   <si>
@@ -779,6 +1031,9 @@
     <t xml:space="preserve">This code is for the North Korean Won used in Korea (The Democratic People’s Republic Of)</t>
   </si>
   <si>
+    <t xml:space="preserve">408</t>
+  </si>
+  <si>
     <t xml:space="preserve">KRW</t>
   </si>
   <si>
@@ -788,6 +1043,9 @@
     <t xml:space="preserve">This code is for the Won used in Korea (The Republic Of)</t>
   </si>
   <si>
+    <t xml:space="preserve">410</t>
+  </si>
+  <si>
     <t xml:space="preserve">KWD</t>
   </si>
   <si>
@@ -797,6 +1055,9 @@
     <t xml:space="preserve">This code is for the Kuwaiti Dinar used in Kuwait</t>
   </si>
   <si>
+    <t xml:space="preserve">414</t>
+  </si>
+  <si>
     <t xml:space="preserve">KGS</t>
   </si>
   <si>
@@ -806,6 +1067,9 @@
     <t xml:space="preserve">This code is for the Som used in Kyrgyzstan</t>
   </si>
   <si>
+    <t xml:space="preserve">417</t>
+  </si>
+  <si>
     <t xml:space="preserve">LAK</t>
   </si>
   <si>
@@ -815,6 +1079,9 @@
     <t xml:space="preserve">This code is for the Lao Kip used in Lao People’s Democratic Republic (The)</t>
   </si>
   <si>
+    <t xml:space="preserve">418</t>
+  </si>
+  <si>
     <t xml:space="preserve">LBP</t>
   </si>
   <si>
@@ -824,6 +1091,9 @@
     <t xml:space="preserve">This code is for the Lebanese Pound used in Lebanon</t>
   </si>
   <si>
+    <t xml:space="preserve">422</t>
+  </si>
+  <si>
     <t xml:space="preserve">LSL</t>
   </si>
   <si>
@@ -833,6 +1103,9 @@
     <t xml:space="preserve">This code is for the Loti used in Lesotho</t>
   </si>
   <si>
+    <t xml:space="preserve">426</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZAR</t>
   </si>
   <si>
@@ -842,6 +1115,9 @@
     <t xml:space="preserve">This code is for the Rand used in Lesotho, Namibia, South Africa</t>
   </si>
   <si>
+    <t xml:space="preserve">710</t>
+  </si>
+  <si>
     <t xml:space="preserve">LRD</t>
   </si>
   <si>
@@ -851,6 +1127,9 @@
     <t xml:space="preserve">This code is for the Liberian Dollar used in Liberia</t>
   </si>
   <si>
+    <t xml:space="preserve">430</t>
+  </si>
+  <si>
     <t xml:space="preserve">LYD</t>
   </si>
   <si>
@@ -860,6 +1139,9 @@
     <t xml:space="preserve">This code is for the Libyan Dinar used in Libya</t>
   </si>
   <si>
+    <t xml:space="preserve">434</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHF</t>
   </si>
   <si>
@@ -869,6 +1151,9 @@
     <t xml:space="preserve">This code is for the Swiss Franc used in Liechtenstein, Switzerland</t>
   </si>
   <si>
+    <t xml:space="preserve">756</t>
+  </si>
+  <si>
     <t xml:space="preserve">MOP</t>
   </si>
   <si>
@@ -878,6 +1163,9 @@
     <t xml:space="preserve">This code is for the Pataca used in Macao</t>
   </si>
   <si>
+    <t xml:space="preserve">446</t>
+  </si>
+  <si>
     <t xml:space="preserve">MKD</t>
   </si>
   <si>
@@ -887,6 +1175,9 @@
     <t xml:space="preserve">This code is for the Denar used in Macedonia (The Former Yugoslav Republic Of)</t>
   </si>
   <si>
+    <t xml:space="preserve">807</t>
+  </si>
+  <si>
     <t xml:space="preserve">MGA</t>
   </si>
   <si>
@@ -896,6 +1187,9 @@
     <t xml:space="preserve">This code is for the Malagasy Ariary used in Madagascar</t>
   </si>
   <si>
+    <t xml:space="preserve">969</t>
+  </si>
+  <si>
     <t xml:space="preserve">MWK</t>
   </si>
   <si>
@@ -905,6 +1199,9 @@
     <t xml:space="preserve">This code is for the Malawi Kwacha used in Malawi</t>
   </si>
   <si>
+    <t xml:space="preserve">454</t>
+  </si>
+  <si>
     <t xml:space="preserve">MYR</t>
   </si>
   <si>
@@ -914,6 +1211,9 @@
     <t xml:space="preserve">This code is for the Malaysian Ringgit used in Malaysia</t>
   </si>
   <si>
+    <t xml:space="preserve">458</t>
+  </si>
+  <si>
     <t xml:space="preserve">MVR</t>
   </si>
   <si>
@@ -923,6 +1223,9 @@
     <t xml:space="preserve">This code is for the Rufiyaa used in Maldives</t>
   </si>
   <si>
+    <t xml:space="preserve">462</t>
+  </si>
+  <si>
     <t xml:space="preserve">MRU</t>
   </si>
   <si>
@@ -932,6 +1235,9 @@
     <t xml:space="preserve">This code is for the Ouguiya used in Mauritania</t>
   </si>
   <si>
+    <t xml:space="preserve">929</t>
+  </si>
+  <si>
     <t xml:space="preserve">MUR</t>
   </si>
   <si>
@@ -941,6 +1247,9 @@
     <t xml:space="preserve">This code is for the Mauritius Rupee used in Mauritius</t>
   </si>
   <si>
+    <t xml:space="preserve">480</t>
+  </si>
+  <si>
     <t xml:space="preserve">XUA</t>
   </si>
   <si>
@@ -950,6 +1259,9 @@
     <t xml:space="preserve">This code is for ADB Unit of Account</t>
   </si>
   <si>
+    <t xml:space="preserve">965</t>
+  </si>
+  <si>
     <t xml:space="preserve">MXN</t>
   </si>
   <si>
@@ -959,6 +1271,9 @@
     <t xml:space="preserve">This code is for the Mexican Peso used in Mexico</t>
   </si>
   <si>
+    <t xml:space="preserve">484</t>
+  </si>
+  <si>
     <t xml:space="preserve">MXV</t>
   </si>
   <si>
@@ -968,6 +1283,9 @@
     <t xml:space="preserve">This code is for the Mexican Unidad de Inversion (UDI) used in Mexico</t>
   </si>
   <si>
+    <t xml:space="preserve">979</t>
+  </si>
+  <si>
     <t xml:space="preserve">MDL</t>
   </si>
   <si>
@@ -977,6 +1295,9 @@
     <t xml:space="preserve">This code is for the Moldovan Leu used in Moldova (The Republic Of)</t>
   </si>
   <si>
+    <t xml:space="preserve">498</t>
+  </si>
+  <si>
     <t xml:space="preserve">MNT</t>
   </si>
   <si>
@@ -986,6 +1307,9 @@
     <t xml:space="preserve">This code is for the Tugrik used in Mongolia</t>
   </si>
   <si>
+    <t xml:space="preserve">496</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAD</t>
   </si>
   <si>
@@ -995,6 +1319,9 @@
     <t xml:space="preserve">This code is for the Moroccan Dirham used in Morocco, Western Sahara</t>
   </si>
   <si>
+    <t xml:space="preserve">504</t>
+  </si>
+  <si>
     <t xml:space="preserve">MZN</t>
   </si>
   <si>
@@ -1004,6 +1331,9 @@
     <t xml:space="preserve">This code is for the Mozambique Metical used in Mozambique</t>
   </si>
   <si>
+    <t xml:space="preserve">943</t>
+  </si>
+  <si>
     <t xml:space="preserve">MMK</t>
   </si>
   <si>
@@ -1013,6 +1343,9 @@
     <t xml:space="preserve">This code is for the Kyat used in Myanmar</t>
   </si>
   <si>
+    <t xml:space="preserve">104</t>
+  </si>
+  <si>
     <t xml:space="preserve">NAD</t>
   </si>
   <si>
@@ -1022,6 +1355,9 @@
     <t xml:space="preserve">This code is for the Namibia Dollar used in Namibia</t>
   </si>
   <si>
+    <t xml:space="preserve">516</t>
+  </si>
+  <si>
     <t xml:space="preserve">NPR</t>
   </si>
   <si>
@@ -1031,6 +1367,9 @@
     <t xml:space="preserve">This code is for the Nepalese Rupee used in Nepal</t>
   </si>
   <si>
+    <t xml:space="preserve">524</t>
+  </si>
+  <si>
     <t xml:space="preserve">NIO</t>
   </si>
   <si>
@@ -1040,6 +1379,9 @@
     <t xml:space="preserve">This code is for the Cordoba Oro used in Nicaragua</t>
   </si>
   <si>
+    <t xml:space="preserve">558</t>
+  </si>
+  <si>
     <t xml:space="preserve">NGN</t>
   </si>
   <si>
@@ -1049,6 +1391,9 @@
     <t xml:space="preserve">This code is for the Naira used in Nigeria</t>
   </si>
   <si>
+    <t xml:space="preserve">566</t>
+  </si>
+  <si>
     <t xml:space="preserve">OMR</t>
   </si>
   <si>
@@ -1058,6 +1403,9 @@
     <t xml:space="preserve">This code is for the Rial Omani used in Oman</t>
   </si>
   <si>
+    <t xml:space="preserve">512</t>
+  </si>
+  <si>
     <t xml:space="preserve">PKR</t>
   </si>
   <si>
@@ -1067,6 +1415,9 @@
     <t xml:space="preserve">This code is for the Pakistan Rupee used in Pakistan</t>
   </si>
   <si>
+    <t xml:space="preserve">586</t>
+  </si>
+  <si>
     <t xml:space="preserve">PAB</t>
   </si>
   <si>
@@ -1076,6 +1427,9 @@
     <t xml:space="preserve">This code is for the Balboa used in Panama</t>
   </si>
   <si>
+    <t xml:space="preserve">590</t>
+  </si>
+  <si>
     <t xml:space="preserve">PGK</t>
   </si>
   <si>
@@ -1085,6 +1439,9 @@
     <t xml:space="preserve">This code is for the Kina used in Papua New Guinea</t>
   </si>
   <si>
+    <t xml:space="preserve">598</t>
+  </si>
+  <si>
     <t xml:space="preserve">PYG</t>
   </si>
   <si>
@@ -1094,6 +1451,9 @@
     <t xml:space="preserve">This code is for the Guarani used in Paraguay</t>
   </si>
   <si>
+    <t xml:space="preserve">600</t>
+  </si>
+  <si>
     <t xml:space="preserve">PEN</t>
   </si>
   <si>
@@ -1103,6 +1463,9 @@
     <t xml:space="preserve">This code is for the Sol used in Peru</t>
   </si>
   <si>
+    <t xml:space="preserve">604</t>
+  </si>
+  <si>
     <t xml:space="preserve">PHP</t>
   </si>
   <si>
@@ -1112,6 +1475,9 @@
     <t xml:space="preserve">This code is for the Philippine Peso used in Philippines (The)</t>
   </si>
   <si>
+    <t xml:space="preserve">608</t>
+  </si>
+  <si>
     <t xml:space="preserve">PLN</t>
   </si>
   <si>
@@ -1121,6 +1487,9 @@
     <t xml:space="preserve">This code is for the Zloty used in Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">985</t>
+  </si>
+  <si>
     <t xml:space="preserve">QAR</t>
   </si>
   <si>
@@ -1130,6 +1499,9 @@
     <t xml:space="preserve">This code is for the Qatari Rial used in Qatar</t>
   </si>
   <si>
+    <t xml:space="preserve">634</t>
+  </si>
+  <si>
     <t xml:space="preserve">RON</t>
   </si>
   <si>
@@ -1139,6 +1511,9 @@
     <t xml:space="preserve">This code is for the Romanian Leu used in Romania</t>
   </si>
   <si>
+    <t xml:space="preserve">946</t>
+  </si>
+  <si>
     <t xml:space="preserve">RUB</t>
   </si>
   <si>
@@ -1148,6 +1523,9 @@
     <t xml:space="preserve">This code is for the Russian Ruble used in Russian Federation (The)</t>
   </si>
   <si>
+    <t xml:space="preserve">643</t>
+  </si>
+  <si>
     <t xml:space="preserve">RWF</t>
   </si>
   <si>
@@ -1157,6 +1535,9 @@
     <t xml:space="preserve">This code is for the Rwanda Franc used in Rwanda</t>
   </si>
   <si>
+    <t xml:space="preserve">646</t>
+  </si>
+  <si>
     <t xml:space="preserve">SHP</t>
   </si>
   <si>
@@ -1166,6 +1547,9 @@
     <t xml:space="preserve">This code is for the Saint Helena Pound used in Saint Helena, Ascension And Tristan Da Cunha</t>
   </si>
   <si>
+    <t xml:space="preserve">654</t>
+  </si>
+  <si>
     <t xml:space="preserve">WST</t>
   </si>
   <si>
@@ -1175,6 +1559,9 @@
     <t xml:space="preserve">This code is for the Tala used in Samoa</t>
   </si>
   <si>
+    <t xml:space="preserve">882</t>
+  </si>
+  <si>
     <t xml:space="preserve">STN</t>
   </si>
   <si>
@@ -1184,6 +1571,9 @@
     <t xml:space="preserve">This code is for the Dobra used in Sao Tome And Principe</t>
   </si>
   <si>
+    <t xml:space="preserve">930</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAR</t>
   </si>
   <si>
@@ -1193,6 +1583,9 @@
     <t xml:space="preserve">This code is for the Saudi Riyal used in Saudi Arabia</t>
   </si>
   <si>
+    <t xml:space="preserve">682</t>
+  </si>
+  <si>
     <t xml:space="preserve">RSD</t>
   </si>
   <si>
@@ -1202,6 +1595,9 @@
     <t xml:space="preserve">This code is for the Serbian Dinar used in Serbia</t>
   </si>
   <si>
+    <t xml:space="preserve">941</t>
+  </si>
+  <si>
     <t xml:space="preserve">SCR</t>
   </si>
   <si>
@@ -1211,6 +1607,9 @@
     <t xml:space="preserve">This code is for the Seychelles Rupee used in Seychelles</t>
   </si>
   <si>
+    <t xml:space="preserve">690</t>
+  </si>
+  <si>
     <t xml:space="preserve">SLL</t>
   </si>
   <si>
@@ -1220,6 +1619,9 @@
     <t xml:space="preserve">This code is for the Leone used in Sierra Leone</t>
   </si>
   <si>
+    <t xml:space="preserve">694</t>
+  </si>
+  <si>
     <t xml:space="preserve">SGD</t>
   </si>
   <si>
@@ -1229,6 +1631,9 @@
     <t xml:space="preserve">This code is for the Singapore Dollar used in Singapore</t>
   </si>
   <si>
+    <t xml:space="preserve">702</t>
+  </si>
+  <si>
     <t xml:space="preserve">XSU</t>
   </si>
   <si>
@@ -1238,6 +1643,9 @@
     <t xml:space="preserve">This code is for Sucre</t>
   </si>
   <si>
+    <t xml:space="preserve">994</t>
+  </si>
+  <si>
     <t xml:space="preserve">SBD</t>
   </si>
   <si>
@@ -1247,6 +1655,9 @@
     <t xml:space="preserve">This code is for the Solomon Islands Dollar used in Solomon Islands</t>
   </si>
   <si>
+    <t xml:space="preserve">090</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOS</t>
   </si>
   <si>
@@ -1256,6 +1667,9 @@
     <t xml:space="preserve">This code is for the Somali Shilling used in Somalia</t>
   </si>
   <si>
+    <t xml:space="preserve">706</t>
+  </si>
+  <si>
     <t xml:space="preserve">SSP</t>
   </si>
   <si>
@@ -1265,6 +1679,9 @@
     <t xml:space="preserve">This code is for the South Sudanese Pound used in South Sudan</t>
   </si>
   <si>
+    <t xml:space="preserve">728</t>
+  </si>
+  <si>
     <t xml:space="preserve">LKR</t>
   </si>
   <si>
@@ -1274,6 +1691,9 @@
     <t xml:space="preserve">This code is for the Sri Lanka Rupee used in Sri Lanka</t>
   </si>
   <si>
+    <t xml:space="preserve">144</t>
+  </si>
+  <si>
     <t xml:space="preserve">SDG</t>
   </si>
   <si>
@@ -1283,6 +1703,9 @@
     <t xml:space="preserve">This code is for the Sudanese Pound used in Sudan (The)</t>
   </si>
   <si>
+    <t xml:space="preserve">938</t>
+  </si>
+  <si>
     <t xml:space="preserve">SRD</t>
   </si>
   <si>
@@ -1292,6 +1715,9 @@
     <t xml:space="preserve">This code is for the Surinam Dollar used in Suriname</t>
   </si>
   <si>
+    <t xml:space="preserve">968</t>
+  </si>
+  <si>
     <t xml:space="preserve">SZL</t>
   </si>
   <si>
@@ -1301,6 +1727,9 @@
     <t xml:space="preserve">This code is for the Lilangeni used in Eswatini</t>
   </si>
   <si>
+    <t xml:space="preserve">748</t>
+  </si>
+  <si>
     <t xml:space="preserve">SEK</t>
   </si>
   <si>
@@ -1310,6 +1739,9 @@
     <t xml:space="preserve">This code is for the Swedish Krona used in Sweden</t>
   </si>
   <si>
+    <t xml:space="preserve">752</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHE</t>
   </si>
   <si>
@@ -1319,6 +1751,9 @@
     <t xml:space="preserve">This code is for the WIR Euro used in Switzerland</t>
   </si>
   <si>
+    <t xml:space="preserve">947</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHW</t>
   </si>
   <si>
@@ -1328,6 +1763,9 @@
     <t xml:space="preserve">This code is for the WIR Franc used in Switzerland</t>
   </si>
   <si>
+    <t xml:space="preserve">948</t>
+  </si>
+  <si>
     <t xml:space="preserve">SYP</t>
   </si>
   <si>
@@ -1337,6 +1775,9 @@
     <t xml:space="preserve">This code is for the Syrian Pound used in Syrian Arab Republic</t>
   </si>
   <si>
+    <t xml:space="preserve">760</t>
+  </si>
+  <si>
     <t xml:space="preserve">TWD</t>
   </si>
   <si>
@@ -1346,6 +1787,9 @@
     <t xml:space="preserve">This code is for the New Taiwan Dollar used in Taiwan (Province Of China)</t>
   </si>
   <si>
+    <t xml:space="preserve">901</t>
+  </si>
+  <si>
     <t xml:space="preserve">TJS</t>
   </si>
   <si>
@@ -1355,6 +1799,9 @@
     <t xml:space="preserve">This code is for the Somoni used in Tajikistan</t>
   </si>
   <si>
+    <t xml:space="preserve">972</t>
+  </si>
+  <si>
     <t xml:space="preserve">TZS</t>
   </si>
   <si>
@@ -1364,6 +1811,9 @@
     <t xml:space="preserve">This code is for the Tanzanian Shilling used in Tanzania, United Republic Of</t>
   </si>
   <si>
+    <t xml:space="preserve">834</t>
+  </si>
+  <si>
     <t xml:space="preserve">THB</t>
   </si>
   <si>
@@ -1373,6 +1823,9 @@
     <t xml:space="preserve">This code is for the Baht used in Thailand</t>
   </si>
   <si>
+    <t xml:space="preserve">764</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOP</t>
   </si>
   <si>
@@ -1382,6 +1835,9 @@
     <t xml:space="preserve">This code is for the Pa’anga used in Tonga</t>
   </si>
   <si>
+    <t xml:space="preserve">776</t>
+  </si>
+  <si>
     <t xml:space="preserve">TTD</t>
   </si>
   <si>
@@ -1391,6 +1847,9 @@
     <t xml:space="preserve">This code is for the Trinidad and Tobago Dollar used in Trinidad And Tobago</t>
   </si>
   <si>
+    <t xml:space="preserve">780</t>
+  </si>
+  <si>
     <t xml:space="preserve">TND</t>
   </si>
   <si>
@@ -1400,6 +1859,9 @@
     <t xml:space="preserve">This code is for the Tunisian Dinar used in Tunisia</t>
   </si>
   <si>
+    <t xml:space="preserve">788</t>
+  </si>
+  <si>
     <t xml:space="preserve">TRY</t>
   </si>
   <si>
@@ -1409,6 +1871,9 @@
     <t xml:space="preserve">This code is for the Turkish Lira used in Turkey</t>
   </si>
   <si>
+    <t xml:space="preserve">949</t>
+  </si>
+  <si>
     <t xml:space="preserve">TMT</t>
   </si>
   <si>
@@ -1418,6 +1883,9 @@
     <t xml:space="preserve">This code is for the Turkmenistan New Manat used in Turkmenistan</t>
   </si>
   <si>
+    <t xml:space="preserve">934</t>
+  </si>
+  <si>
     <t xml:space="preserve">UGX</t>
   </si>
   <si>
@@ -1427,6 +1895,9 @@
     <t xml:space="preserve">This code is for the Uganda Shilling used in Uganda</t>
   </si>
   <si>
+    <t xml:space="preserve">800</t>
+  </si>
+  <si>
     <t xml:space="preserve">UAH</t>
   </si>
   <si>
@@ -1436,6 +1907,9 @@
     <t xml:space="preserve">This code is for the Hryvnia used in Ukraine</t>
   </si>
   <si>
+    <t xml:space="preserve">980</t>
+  </si>
+  <si>
     <t xml:space="preserve">AED</t>
   </si>
   <si>
@@ -1445,6 +1919,9 @@
     <t xml:space="preserve">This code is for the UAE Dirham used in United Arab Emirates (The)</t>
   </si>
   <si>
+    <t xml:space="preserve">784</t>
+  </si>
+  <si>
     <t xml:space="preserve">USN</t>
   </si>
   <si>
@@ -1454,6 +1931,9 @@
     <t xml:space="preserve">This code is for the US Dollar (Next day) used in United States Of America (The)</t>
   </si>
   <si>
+    <t xml:space="preserve">997</t>
+  </si>
+  <si>
     <t xml:space="preserve">UYU</t>
   </si>
   <si>
@@ -1463,6 +1943,9 @@
     <t xml:space="preserve">This code is for the Peso Uruguayo used in Uruguay</t>
   </si>
   <si>
+    <t xml:space="preserve">858</t>
+  </si>
+  <si>
     <t xml:space="preserve">UYI</t>
   </si>
   <si>
@@ -1472,6 +1955,9 @@
     <t xml:space="preserve">This code is for the Uruguay Peso en Unidades Indexadas (UI) used in Uruguay</t>
   </si>
   <si>
+    <t xml:space="preserve">940</t>
+  </si>
+  <si>
     <t xml:space="preserve">UYW</t>
   </si>
   <si>
@@ -1481,6 +1967,9 @@
     <t xml:space="preserve">This code is for the Unidad Previsional used in Uruguay</t>
   </si>
   <si>
+    <t xml:space="preserve">927</t>
+  </si>
+  <si>
     <t xml:space="preserve">UZS</t>
   </si>
   <si>
@@ -1490,6 +1979,9 @@
     <t xml:space="preserve">This code is for the Uzbekistan Sum used in Uzbekistan</t>
   </si>
   <si>
+    <t xml:space="preserve">860</t>
+  </si>
+  <si>
     <t xml:space="preserve">VUV</t>
   </si>
   <si>
@@ -1499,6 +1991,9 @@
     <t xml:space="preserve">This code is for the Vatu used in Vanuatu</t>
   </si>
   <si>
+    <t xml:space="preserve">548</t>
+  </si>
+  <si>
     <t xml:space="preserve">VES</t>
   </si>
   <si>
@@ -1508,6 +2003,9 @@
     <t xml:space="preserve">This code is for the Bolívar Soberano used in Venezuela (Bolivarian Republic Of)</t>
   </si>
   <si>
+    <t xml:space="preserve">928</t>
+  </si>
+  <si>
     <t xml:space="preserve">VND</t>
   </si>
   <si>
@@ -1517,6 +2015,9 @@
     <t xml:space="preserve">This code is for the Dong used in Viet Nam</t>
   </si>
   <si>
+    <t xml:space="preserve">704</t>
+  </si>
+  <si>
     <t xml:space="preserve">YER</t>
   </si>
   <si>
@@ -1526,6 +2027,9 @@
     <t xml:space="preserve">This code is for the Yemeni Rial used in Yemen</t>
   </si>
   <si>
+    <t xml:space="preserve">886</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZMW</t>
   </si>
   <si>
@@ -1535,6 +2039,9 @@
     <t xml:space="preserve">This code is for the Zambian Kwacha used in Zambia</t>
   </si>
   <si>
+    <t xml:space="preserve">967</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZWL</t>
   </si>
   <si>
@@ -1544,6 +2051,9 @@
     <t xml:space="preserve">This code is for the Zimbabwe Dollar used in Zimbabwe</t>
   </si>
   <si>
+    <t xml:space="preserve">932</t>
+  </si>
+  <si>
     <t xml:space="preserve">XBA</t>
   </si>
   <si>
@@ -1553,6 +2063,9 @@
     <t xml:space="preserve">This code is for Bond Markets Unit European Composite Unit (EURCO)</t>
   </si>
   <si>
+    <t xml:space="preserve">955</t>
+  </si>
+  <si>
     <t xml:space="preserve">XBB</t>
   </si>
   <si>
@@ -1562,6 +2075,9 @@
     <t xml:space="preserve">This code is for Bond Markets Unit European Monetary Unit (E.M.U.-6)</t>
   </si>
   <si>
+    <t xml:space="preserve">956</t>
+  </si>
+  <si>
     <t xml:space="preserve">XBC</t>
   </si>
   <si>
@@ -1571,6 +2087,9 @@
     <t xml:space="preserve">This code is for Bond Markets Unit European Unit of Account 9 (E.U.A.-9)</t>
   </si>
   <si>
+    <t xml:space="preserve">957</t>
+  </si>
+  <si>
     <t xml:space="preserve">XBD</t>
   </si>
   <si>
@@ -1580,6 +2099,9 @@
     <t xml:space="preserve">This code is for Bond Markets Unit European Unit of Account 17 (E.U.A.-17)</t>
   </si>
   <si>
+    <t xml:space="preserve">958</t>
+  </si>
+  <si>
     <t xml:space="preserve">XTS</t>
   </si>
   <si>
@@ -1589,6 +2111,9 @@
     <t xml:space="preserve">This code is for Codes specifically reserved for testing purposes</t>
   </si>
   <si>
+    <t xml:space="preserve">963</t>
+  </si>
+  <si>
     <t xml:space="preserve">XXX</t>
   </si>
   <si>
@@ -1598,6 +2123,9 @@
     <t xml:space="preserve">This code is for The codes assigned for transactions where no currency is involved</t>
   </si>
   <si>
+    <t xml:space="preserve">999</t>
+  </si>
+  <si>
     <t xml:space="preserve">XAU</t>
   </si>
   <si>
@@ -1607,6 +2135,9 @@
     <t xml:space="preserve">This code is for Gold</t>
   </si>
   <si>
+    <t xml:space="preserve">959</t>
+  </si>
+  <si>
     <t xml:space="preserve">XPD</t>
   </si>
   <si>
@@ -1616,6 +2147,9 @@
     <t xml:space="preserve">This code is for Palladium</t>
   </si>
   <si>
+    <t xml:space="preserve">964</t>
+  </si>
+  <si>
     <t xml:space="preserve">XPT</t>
   </si>
   <si>
@@ -1625,6 +2159,9 @@
     <t xml:space="preserve">This code is for Platinum</t>
   </si>
   <si>
+    <t xml:space="preserve">962</t>
+  </si>
+  <si>
     <t xml:space="preserve">XAG</t>
   </si>
   <si>
@@ -1632,6 +2169,9 @@
   </si>
   <si>
     <t xml:space="preserve">This code is for Silver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">961</t>
   </si>
 </sst>
 </file>
@@ -1973,1974 +2513,2514 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>74</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>116</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="B33" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>133</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>146</v>
+      </c>
+      <c r="D37" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>150</v>
+      </c>
+      <c r="D38" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>154</v>
+      </c>
+      <c r="D39" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B40" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="C40" t="s">
-        <v>119</v>
+        <v>158</v>
+      </c>
+      <c r="D40" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>162</v>
+      </c>
+      <c r="D41" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>166</v>
+      </c>
+      <c r="D42" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>128</v>
+        <v>170</v>
+      </c>
+      <c r="D43" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="B44" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>131</v>
+        <v>174</v>
+      </c>
+      <c r="D44" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="C45" t="s">
-        <v>134</v>
+        <v>178</v>
+      </c>
+      <c r="D45" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
+        <v>182</v>
+      </c>
+      <c r="D46" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>186</v>
+      </c>
+      <c r="D47" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>190</v>
+      </c>
+      <c r="D48" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>194</v>
+      </c>
+      <c r="D49" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>198</v>
+      </c>
+      <c r="D50" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>202</v>
+      </c>
+      <c r="D51" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>204</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>205</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>206</v>
+      </c>
+      <c r="D52" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>210</v>
+      </c>
+      <c r="D53" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>214</v>
+      </c>
+      <c r="D54" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>218</v>
+      </c>
+      <c r="D55" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>222</v>
+      </c>
+      <c r="D56" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>224</v>
       </c>
       <c r="B57" t="s">
-        <v>169</v>
+        <v>225</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>226</v>
+      </c>
+      <c r="D57" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="B58" t="s">
-        <v>172</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
-        <v>173</v>
+        <v>230</v>
+      </c>
+      <c r="D58" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>174</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>234</v>
+      </c>
+      <c r="D59" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="B60" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="C60" t="s">
-        <v>179</v>
+        <v>238</v>
+      </c>
+      <c r="D60" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>242</v>
+      </c>
+      <c r="D61" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>183</v>
+        <v>244</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>245</v>
       </c>
       <c r="C62" t="s">
-        <v>185</v>
+        <v>246</v>
+      </c>
+      <c r="D62" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>186</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s">
-        <v>187</v>
+        <v>249</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>250</v>
+      </c>
+      <c r="D63" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s">
-        <v>190</v>
+        <v>253</v>
       </c>
       <c r="C64" t="s">
-        <v>191</v>
+        <v>254</v>
+      </c>
+      <c r="D64" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="B65" t="s">
-        <v>193</v>
+        <v>257</v>
       </c>
       <c r="C65" t="s">
-        <v>194</v>
+        <v>258</v>
+      </c>
+      <c r="D65" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>195</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s">
-        <v>196</v>
+        <v>261</v>
       </c>
       <c r="C66" t="s">
-        <v>197</v>
+        <v>262</v>
+      </c>
+      <c r="D66" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="B67" t="s">
-        <v>199</v>
+        <v>265</v>
       </c>
       <c r="C67" t="s">
-        <v>200</v>
+        <v>266</v>
+      </c>
+      <c r="D67" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>269</v>
       </c>
       <c r="C68" t="s">
-        <v>203</v>
+        <v>270</v>
+      </c>
+      <c r="D68" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>204</v>
+        <v>272</v>
       </c>
       <c r="B69" t="s">
-        <v>205</v>
+        <v>273</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>274</v>
+      </c>
+      <c r="D69" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>207</v>
+        <v>276</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>278</v>
+      </c>
+      <c r="D70" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="B71" t="s">
-        <v>211</v>
+        <v>281</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>282</v>
+      </c>
+      <c r="D71" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>284</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>285</v>
       </c>
       <c r="C72" t="s">
-        <v>215</v>
+        <v>286</v>
+      </c>
+      <c r="D72" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>216</v>
+        <v>288</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
       <c r="C73" t="s">
-        <v>218</v>
+        <v>290</v>
+      </c>
+      <c r="D73" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>219</v>
+        <v>292</v>
       </c>
       <c r="B74" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>294</v>
+      </c>
+      <c r="D74" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="B75" t="s">
-        <v>223</v>
+        <v>297</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>298</v>
+      </c>
+      <c r="D75" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="B76" t="s">
-        <v>226</v>
+        <v>301</v>
       </c>
       <c r="C76" t="s">
-        <v>227</v>
+        <v>302</v>
+      </c>
+      <c r="D76" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="B77" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="C77" t="s">
-        <v>230</v>
+        <v>306</v>
+      </c>
+      <c r="D77" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>231</v>
+        <v>308</v>
       </c>
       <c r="B78" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="C78" t="s">
-        <v>233</v>
+        <v>310</v>
+      </c>
+      <c r="D78" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>234</v>
+        <v>312</v>
       </c>
       <c r="B79" t="s">
-        <v>235</v>
+        <v>313</v>
       </c>
       <c r="C79" t="s">
-        <v>236</v>
+        <v>314</v>
+      </c>
+      <c r="D79" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>316</v>
       </c>
       <c r="B80" t="s">
-        <v>238</v>
+        <v>317</v>
       </c>
       <c r="C80" t="s">
-        <v>239</v>
+        <v>318</v>
+      </c>
+      <c r="D80" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="B81" t="s">
-        <v>241</v>
+        <v>321</v>
       </c>
       <c r="C81" t="s">
-        <v>242</v>
+        <v>322</v>
+      </c>
+      <c r="D81" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="B82" t="s">
-        <v>244</v>
+        <v>325</v>
       </c>
       <c r="C82" t="s">
-        <v>245</v>
+        <v>326</v>
+      </c>
+      <c r="D82" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>246</v>
+        <v>328</v>
       </c>
       <c r="B83" t="s">
-        <v>247</v>
+        <v>329</v>
       </c>
       <c r="C83" t="s">
-        <v>248</v>
+        <v>330</v>
+      </c>
+      <c r="D83" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>332</v>
       </c>
       <c r="B84" t="s">
-        <v>250</v>
+        <v>333</v>
       </c>
       <c r="C84" t="s">
-        <v>251</v>
+        <v>334</v>
+      </c>
+      <c r="D84" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="C85" t="s">
-        <v>254</v>
+        <v>338</v>
+      </c>
+      <c r="D85" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>255</v>
+        <v>340</v>
       </c>
       <c r="B86" t="s">
-        <v>256</v>
+        <v>341</v>
       </c>
       <c r="C86" t="s">
-        <v>257</v>
+        <v>342</v>
+      </c>
+      <c r="D86" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>258</v>
+        <v>344</v>
       </c>
       <c r="B87" t="s">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="C87" t="s">
-        <v>260</v>
+        <v>346</v>
+      </c>
+      <c r="D87" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>261</v>
+        <v>348</v>
       </c>
       <c r="B88" t="s">
-        <v>262</v>
+        <v>349</v>
       </c>
       <c r="C88" t="s">
-        <v>263</v>
+        <v>350</v>
+      </c>
+      <c r="D88" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>264</v>
+        <v>352</v>
       </c>
       <c r="B89" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="C89" t="s">
-        <v>266</v>
+        <v>354</v>
+      </c>
+      <c r="D89" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>267</v>
+        <v>356</v>
       </c>
       <c r="B90" t="s">
-        <v>268</v>
+        <v>357</v>
       </c>
       <c r="C90" t="s">
-        <v>269</v>
+        <v>358</v>
+      </c>
+      <c r="D90" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="B91" t="s">
-        <v>271</v>
+        <v>361</v>
       </c>
       <c r="C91" t="s">
-        <v>272</v>
+        <v>362</v>
+      </c>
+      <c r="D91" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>273</v>
+        <v>364</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>365</v>
       </c>
       <c r="C92" t="s">
-        <v>275</v>
+        <v>366</v>
+      </c>
+      <c r="D92" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>276</v>
+        <v>368</v>
       </c>
       <c r="B93" t="s">
-        <v>277</v>
+        <v>369</v>
       </c>
       <c r="C93" t="s">
-        <v>278</v>
+        <v>370</v>
+      </c>
+      <c r="D93" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>279</v>
+        <v>372</v>
       </c>
       <c r="B94" t="s">
-        <v>280</v>
+        <v>373</v>
       </c>
       <c r="C94" t="s">
-        <v>281</v>
+        <v>374</v>
+      </c>
+      <c r="D94" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>282</v>
+        <v>376</v>
       </c>
       <c r="B95" t="s">
-        <v>283</v>
+        <v>377</v>
       </c>
       <c r="C95" t="s">
-        <v>284</v>
+        <v>378</v>
+      </c>
+      <c r="D95" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>285</v>
+        <v>380</v>
       </c>
       <c r="B96" t="s">
-        <v>286</v>
+        <v>381</v>
       </c>
       <c r="C96" t="s">
-        <v>287</v>
+        <v>382</v>
+      </c>
+      <c r="D96" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>288</v>
+        <v>384</v>
       </c>
       <c r="B97" t="s">
-        <v>289</v>
+        <v>385</v>
       </c>
       <c r="C97" t="s">
-        <v>290</v>
+        <v>386</v>
+      </c>
+      <c r="D97" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>291</v>
+        <v>388</v>
       </c>
       <c r="B98" t="s">
-        <v>292</v>
+        <v>389</v>
       </c>
       <c r="C98" t="s">
-        <v>293</v>
+        <v>390</v>
+      </c>
+      <c r="D98" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>294</v>
+        <v>392</v>
       </c>
       <c r="B99" t="s">
-        <v>295</v>
+        <v>393</v>
       </c>
       <c r="C99" t="s">
-        <v>296</v>
+        <v>394</v>
+      </c>
+      <c r="D99" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>297</v>
+        <v>396</v>
       </c>
       <c r="B100" t="s">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="C100" t="s">
-        <v>299</v>
+        <v>398</v>
+      </c>
+      <c r="D100" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="B101" t="s">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="C101" t="s">
-        <v>302</v>
+        <v>402</v>
+      </c>
+      <c r="D101" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>303</v>
+        <v>404</v>
       </c>
       <c r="B102" t="s">
-        <v>304</v>
+        <v>405</v>
       </c>
       <c r="C102" t="s">
-        <v>305</v>
+        <v>406</v>
+      </c>
+      <c r="D102" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>306</v>
+        <v>408</v>
       </c>
       <c r="B103" t="s">
-        <v>307</v>
+        <v>409</v>
       </c>
       <c r="C103" t="s">
-        <v>308</v>
+        <v>410</v>
+      </c>
+      <c r="D103" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>309</v>
+        <v>412</v>
       </c>
       <c r="B104" t="s">
-        <v>310</v>
+        <v>413</v>
       </c>
       <c r="C104" t="s">
-        <v>311</v>
+        <v>414</v>
+      </c>
+      <c r="D104" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>312</v>
+        <v>416</v>
       </c>
       <c r="B105" t="s">
-        <v>313</v>
+        <v>417</v>
       </c>
       <c r="C105" t="s">
-        <v>314</v>
+        <v>418</v>
+      </c>
+      <c r="D105" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>315</v>
+        <v>420</v>
       </c>
       <c r="B106" t="s">
-        <v>316</v>
+        <v>421</v>
       </c>
       <c r="C106" t="s">
-        <v>317</v>
+        <v>422</v>
+      </c>
+      <c r="D106" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>318</v>
+        <v>424</v>
       </c>
       <c r="B107" t="s">
-        <v>319</v>
+        <v>425</v>
       </c>
       <c r="C107" t="s">
-        <v>320</v>
+        <v>426</v>
+      </c>
+      <c r="D107" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>321</v>
+        <v>428</v>
       </c>
       <c r="B108" t="s">
-        <v>322</v>
+        <v>429</v>
       </c>
       <c r="C108" t="s">
-        <v>323</v>
+        <v>430</v>
+      </c>
+      <c r="D108" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>324</v>
+        <v>432</v>
       </c>
       <c r="B109" t="s">
-        <v>325</v>
+        <v>433</v>
       </c>
       <c r="C109" t="s">
-        <v>326</v>
+        <v>434</v>
+      </c>
+      <c r="D109" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>327</v>
+        <v>436</v>
       </c>
       <c r="B110" t="s">
-        <v>328</v>
+        <v>437</v>
       </c>
       <c r="C110" t="s">
-        <v>329</v>
+        <v>438</v>
+      </c>
+      <c r="D110" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>330</v>
+        <v>440</v>
       </c>
       <c r="B111" t="s">
-        <v>331</v>
+        <v>441</v>
       </c>
       <c r="C111" t="s">
-        <v>332</v>
+        <v>442</v>
+      </c>
+      <c r="D111" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>333</v>
+        <v>444</v>
       </c>
       <c r="B112" t="s">
-        <v>334</v>
+        <v>445</v>
       </c>
       <c r="C112" t="s">
-        <v>335</v>
+        <v>446</v>
+      </c>
+      <c r="D112" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>336</v>
+        <v>448</v>
       </c>
       <c r="B113" t="s">
-        <v>337</v>
+        <v>449</v>
       </c>
       <c r="C113" t="s">
-        <v>338</v>
+        <v>450</v>
+      </c>
+      <c r="D113" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>339</v>
+        <v>452</v>
       </c>
       <c r="B114" t="s">
-        <v>340</v>
+        <v>453</v>
       </c>
       <c r="C114" t="s">
-        <v>341</v>
+        <v>454</v>
+      </c>
+      <c r="D114" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>342</v>
+        <v>456</v>
       </c>
       <c r="B115" t="s">
-        <v>343</v>
+        <v>457</v>
       </c>
       <c r="C115" t="s">
-        <v>344</v>
+        <v>458</v>
+      </c>
+      <c r="D115" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>345</v>
+        <v>460</v>
       </c>
       <c r="B116" t="s">
-        <v>346</v>
+        <v>461</v>
       </c>
       <c r="C116" t="s">
-        <v>347</v>
+        <v>462</v>
+      </c>
+      <c r="D116" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>348</v>
+        <v>464</v>
       </c>
       <c r="B117" t="s">
-        <v>349</v>
+        <v>465</v>
       </c>
       <c r="C117" t="s">
-        <v>350</v>
+        <v>466</v>
+      </c>
+      <c r="D117" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>351</v>
+        <v>468</v>
       </c>
       <c r="B118" t="s">
-        <v>352</v>
+        <v>469</v>
       </c>
       <c r="C118" t="s">
-        <v>353</v>
+        <v>470</v>
+      </c>
+      <c r="D118" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>354</v>
+        <v>472</v>
       </c>
       <c r="B119" t="s">
-        <v>355</v>
+        <v>473</v>
       </c>
       <c r="C119" t="s">
-        <v>356</v>
+        <v>474</v>
+      </c>
+      <c r="D119" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>357</v>
+        <v>476</v>
       </c>
       <c r="B120" t="s">
-        <v>358</v>
+        <v>477</v>
       </c>
       <c r="C120" t="s">
-        <v>359</v>
+        <v>478</v>
+      </c>
+      <c r="D120" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>360</v>
+        <v>480</v>
       </c>
       <c r="B121" t="s">
-        <v>361</v>
+        <v>481</v>
       </c>
       <c r="C121" t="s">
-        <v>362</v>
+        <v>482</v>
+      </c>
+      <c r="D121" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>363</v>
+        <v>484</v>
       </c>
       <c r="B122" t="s">
-        <v>364</v>
+        <v>485</v>
       </c>
       <c r="C122" t="s">
-        <v>365</v>
+        <v>486</v>
+      </c>
+      <c r="D122" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>366</v>
+        <v>488</v>
       </c>
       <c r="B123" t="s">
-        <v>367</v>
+        <v>489</v>
       </c>
       <c r="C123" t="s">
-        <v>368</v>
+        <v>490</v>
+      </c>
+      <c r="D123" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>369</v>
+        <v>492</v>
       </c>
       <c r="B124" t="s">
-        <v>370</v>
+        <v>493</v>
       </c>
       <c r="C124" t="s">
-        <v>371</v>
+        <v>494</v>
+      </c>
+      <c r="D124" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>372</v>
+        <v>496</v>
       </c>
       <c r="B125" t="s">
-        <v>373</v>
+        <v>497</v>
       </c>
       <c r="C125" t="s">
-        <v>374</v>
+        <v>498</v>
+      </c>
+      <c r="D125" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>375</v>
+        <v>500</v>
       </c>
       <c r="B126" t="s">
-        <v>376</v>
+        <v>501</v>
       </c>
       <c r="C126" t="s">
-        <v>377</v>
+        <v>502</v>
+      </c>
+      <c r="D126" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>378</v>
+        <v>504</v>
       </c>
       <c r="B127" t="s">
-        <v>379</v>
+        <v>505</v>
       </c>
       <c r="C127" t="s">
-        <v>380</v>
+        <v>506</v>
+      </c>
+      <c r="D127" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>381</v>
+        <v>508</v>
       </c>
       <c r="B128" t="s">
-        <v>382</v>
+        <v>509</v>
       </c>
       <c r="C128" t="s">
-        <v>383</v>
+        <v>510</v>
+      </c>
+      <c r="D128" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>384</v>
+        <v>512</v>
       </c>
       <c r="B129" t="s">
-        <v>385</v>
+        <v>513</v>
       </c>
       <c r="C129" t="s">
-        <v>386</v>
+        <v>514</v>
+      </c>
+      <c r="D129" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>387</v>
+        <v>516</v>
       </c>
       <c r="B130" t="s">
-        <v>388</v>
+        <v>517</v>
       </c>
       <c r="C130" t="s">
-        <v>389</v>
+        <v>518</v>
+      </c>
+      <c r="D130" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>390</v>
+        <v>520</v>
       </c>
       <c r="B131" t="s">
-        <v>391</v>
+        <v>521</v>
       </c>
       <c r="C131" t="s">
-        <v>392</v>
+        <v>522</v>
+      </c>
+      <c r="D131" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>393</v>
+        <v>524</v>
       </c>
       <c r="B132" t="s">
-        <v>394</v>
+        <v>525</v>
       </c>
       <c r="C132" t="s">
-        <v>395</v>
+        <v>526</v>
+      </c>
+      <c r="D132" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>396</v>
+        <v>528</v>
       </c>
       <c r="B133" t="s">
-        <v>397</v>
+        <v>529</v>
       </c>
       <c r="C133" t="s">
-        <v>398</v>
+        <v>530</v>
+      </c>
+      <c r="D133" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>399</v>
+        <v>532</v>
       </c>
       <c r="B134" t="s">
-        <v>400</v>
+        <v>533</v>
       </c>
       <c r="C134" t="s">
-        <v>401</v>
+        <v>534</v>
+      </c>
+      <c r="D134" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>402</v>
+        <v>536</v>
       </c>
       <c r="B135" t="s">
-        <v>403</v>
+        <v>537</v>
       </c>
       <c r="C135" t="s">
-        <v>404</v>
+        <v>538</v>
+      </c>
+      <c r="D135" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>405</v>
+        <v>540</v>
       </c>
       <c r="B136" t="s">
-        <v>406</v>
+        <v>541</v>
       </c>
       <c r="C136" t="s">
-        <v>407</v>
+        <v>542</v>
+      </c>
+      <c r="D136" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>408</v>
+        <v>544</v>
       </c>
       <c r="B137" t="s">
-        <v>409</v>
+        <v>545</v>
       </c>
       <c r="C137" t="s">
-        <v>410</v>
+        <v>546</v>
+      </c>
+      <c r="D137" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>411</v>
+        <v>548</v>
       </c>
       <c r="B138" t="s">
-        <v>412</v>
+        <v>549</v>
       </c>
       <c r="C138" t="s">
-        <v>413</v>
+        <v>550</v>
+      </c>
+      <c r="D138" t="s">
+        <v>551</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>414</v>
+        <v>552</v>
       </c>
       <c r="B139" t="s">
-        <v>415</v>
+        <v>553</v>
       </c>
       <c r="C139" t="s">
-        <v>416</v>
+        <v>554</v>
+      </c>
+      <c r="D139" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>417</v>
+        <v>556</v>
       </c>
       <c r="B140" t="s">
-        <v>418</v>
+        <v>557</v>
       </c>
       <c r="C140" t="s">
-        <v>419</v>
+        <v>558</v>
+      </c>
+      <c r="D140" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>420</v>
+        <v>560</v>
       </c>
       <c r="B141" t="s">
-        <v>421</v>
+        <v>561</v>
       </c>
       <c r="C141" t="s">
-        <v>422</v>
+        <v>562</v>
+      </c>
+      <c r="D141" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>423</v>
+        <v>564</v>
       </c>
       <c r="B142" t="s">
-        <v>424</v>
+        <v>565</v>
       </c>
       <c r="C142" t="s">
-        <v>425</v>
+        <v>566</v>
+      </c>
+      <c r="D142" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>426</v>
+        <v>568</v>
       </c>
       <c r="B143" t="s">
-        <v>427</v>
+        <v>569</v>
       </c>
       <c r="C143" t="s">
-        <v>428</v>
+        <v>570</v>
+      </c>
+      <c r="D143" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>429</v>
+        <v>572</v>
       </c>
       <c r="B144" t="s">
-        <v>430</v>
+        <v>573</v>
       </c>
       <c r="C144" t="s">
-        <v>431</v>
+        <v>574</v>
+      </c>
+      <c r="D144" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>432</v>
+        <v>576</v>
       </c>
       <c r="B145" t="s">
-        <v>433</v>
+        <v>577</v>
       </c>
       <c r="C145" t="s">
-        <v>434</v>
+        <v>578</v>
+      </c>
+      <c r="D145" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>435</v>
+        <v>580</v>
       </c>
       <c r="B146" t="s">
-        <v>436</v>
+        <v>581</v>
       </c>
       <c r="C146" t="s">
-        <v>437</v>
+        <v>582</v>
+      </c>
+      <c r="D146" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>438</v>
+        <v>584</v>
       </c>
       <c r="B147" t="s">
-        <v>439</v>
+        <v>585</v>
       </c>
       <c r="C147" t="s">
-        <v>440</v>
+        <v>586</v>
+      </c>
+      <c r="D147" t="s">
+        <v>587</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>441</v>
+        <v>588</v>
       </c>
       <c r="B148" t="s">
-        <v>442</v>
+        <v>589</v>
       </c>
       <c r="C148" t="s">
-        <v>443</v>
+        <v>590</v>
+      </c>
+      <c r="D148" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>444</v>
+        <v>592</v>
       </c>
       <c r="B149" t="s">
-        <v>445</v>
+        <v>593</v>
       </c>
       <c r="C149" t="s">
-        <v>446</v>
+        <v>594</v>
+      </c>
+      <c r="D149" t="s">
+        <v>595</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>447</v>
+        <v>596</v>
       </c>
       <c r="B150" t="s">
-        <v>448</v>
+        <v>597</v>
       </c>
       <c r="C150" t="s">
-        <v>449</v>
+        <v>598</v>
+      </c>
+      <c r="D150" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>450</v>
+        <v>600</v>
       </c>
       <c r="B151" t="s">
-        <v>451</v>
+        <v>601</v>
       </c>
       <c r="C151" t="s">
-        <v>452</v>
+        <v>602</v>
+      </c>
+      <c r="D151" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>453</v>
+        <v>604</v>
       </c>
       <c r="B152" t="s">
-        <v>454</v>
+        <v>605</v>
       </c>
       <c r="C152" t="s">
-        <v>455</v>
+        <v>606</v>
+      </c>
+      <c r="D152" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>456</v>
+        <v>608</v>
       </c>
       <c r="B153" t="s">
-        <v>457</v>
+        <v>609</v>
       </c>
       <c r="C153" t="s">
-        <v>458</v>
+        <v>610</v>
+      </c>
+      <c r="D153" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>459</v>
+        <v>612</v>
       </c>
       <c r="B154" t="s">
-        <v>460</v>
+        <v>613</v>
       </c>
       <c r="C154" t="s">
-        <v>461</v>
+        <v>614</v>
+      </c>
+      <c r="D154" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>462</v>
+        <v>616</v>
       </c>
       <c r="B155" t="s">
-        <v>463</v>
+        <v>617</v>
       </c>
       <c r="C155" t="s">
-        <v>464</v>
+        <v>618</v>
+      </c>
+      <c r="D155" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>465</v>
+        <v>620</v>
       </c>
       <c r="B156" t="s">
-        <v>466</v>
+        <v>621</v>
       </c>
       <c r="C156" t="s">
-        <v>467</v>
+        <v>622</v>
+      </c>
+      <c r="D156" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>468</v>
+        <v>624</v>
       </c>
       <c r="B157" t="s">
-        <v>469</v>
+        <v>625</v>
       </c>
       <c r="C157" t="s">
-        <v>470</v>
+        <v>626</v>
+      </c>
+      <c r="D157" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>471</v>
+        <v>628</v>
       </c>
       <c r="B158" t="s">
-        <v>472</v>
+        <v>629</v>
       </c>
       <c r="C158" t="s">
-        <v>473</v>
+        <v>630</v>
+      </c>
+      <c r="D158" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>474</v>
+        <v>632</v>
       </c>
       <c r="B159" t="s">
-        <v>475</v>
+        <v>633</v>
       </c>
       <c r="C159" t="s">
-        <v>476</v>
+        <v>634</v>
+      </c>
+      <c r="D159" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>477</v>
+        <v>636</v>
       </c>
       <c r="B160" t="s">
-        <v>478</v>
+        <v>637</v>
       </c>
       <c r="C160" t="s">
-        <v>479</v>
+        <v>638</v>
+      </c>
+      <c r="D160" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="B161" t="s">
-        <v>481</v>
+        <v>641</v>
       </c>
       <c r="C161" t="s">
-        <v>482</v>
+        <v>642</v>
+      </c>
+      <c r="D161" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>483</v>
+        <v>644</v>
       </c>
       <c r="B162" t="s">
-        <v>484</v>
+        <v>645</v>
       </c>
       <c r="C162" t="s">
-        <v>485</v>
+        <v>646</v>
+      </c>
+      <c r="D162" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>486</v>
+        <v>648</v>
       </c>
       <c r="B163" t="s">
-        <v>487</v>
+        <v>649</v>
       </c>
       <c r="C163" t="s">
-        <v>488</v>
+        <v>650</v>
+      </c>
+      <c r="D163" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>489</v>
+        <v>652</v>
       </c>
       <c r="B164" t="s">
-        <v>490</v>
+        <v>653</v>
       </c>
       <c r="C164" t="s">
-        <v>491</v>
+        <v>654</v>
+      </c>
+      <c r="D164" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>492</v>
+        <v>656</v>
       </c>
       <c r="B165" t="s">
-        <v>493</v>
+        <v>657</v>
       </c>
       <c r="C165" t="s">
-        <v>494</v>
+        <v>658</v>
+      </c>
+      <c r="D165" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>495</v>
+        <v>660</v>
       </c>
       <c r="B166" t="s">
-        <v>496</v>
+        <v>661</v>
       </c>
       <c r="C166" t="s">
-        <v>497</v>
+        <v>662</v>
+      </c>
+      <c r="D166" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>498</v>
+        <v>664</v>
       </c>
       <c r="B167" t="s">
-        <v>499</v>
+        <v>665</v>
       </c>
       <c r="C167" t="s">
-        <v>500</v>
+        <v>666</v>
+      </c>
+      <c r="D167" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>501</v>
+        <v>668</v>
       </c>
       <c r="B168" t="s">
-        <v>502</v>
+        <v>669</v>
       </c>
       <c r="C168" t="s">
-        <v>503</v>
+        <v>670</v>
+      </c>
+      <c r="D168" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>504</v>
+        <v>672</v>
       </c>
       <c r="B169" t="s">
-        <v>505</v>
+        <v>673</v>
       </c>
       <c r="C169" t="s">
-        <v>506</v>
+        <v>674</v>
+      </c>
+      <c r="D169" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>507</v>
+        <v>676</v>
       </c>
       <c r="B170" t="s">
-        <v>508</v>
+        <v>677</v>
       </c>
       <c r="C170" t="s">
-        <v>509</v>
+        <v>678</v>
+      </c>
+      <c r="D170" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>510</v>
+        <v>680</v>
       </c>
       <c r="B171" t="s">
-        <v>511</v>
+        <v>681</v>
       </c>
       <c r="C171" t="s">
-        <v>512</v>
+        <v>682</v>
+      </c>
+      <c r="D171" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>513</v>
+        <v>684</v>
       </c>
       <c r="B172" t="s">
-        <v>514</v>
+        <v>685</v>
       </c>
       <c r="C172" t="s">
-        <v>515</v>
+        <v>686</v>
+      </c>
+      <c r="D172" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>516</v>
+        <v>688</v>
       </c>
       <c r="B173" t="s">
-        <v>517</v>
+        <v>689</v>
       </c>
       <c r="C173" t="s">
-        <v>518</v>
+        <v>690</v>
+      </c>
+      <c r="D173" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>519</v>
+        <v>692</v>
       </c>
       <c r="B174" t="s">
-        <v>520</v>
+        <v>693</v>
       </c>
       <c r="C174" t="s">
-        <v>521</v>
+        <v>694</v>
+      </c>
+      <c r="D174" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>522</v>
+        <v>696</v>
       </c>
       <c r="B175" t="s">
-        <v>523</v>
+        <v>697</v>
       </c>
       <c r="C175" t="s">
-        <v>524</v>
+        <v>698</v>
+      </c>
+      <c r="D175" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>525</v>
+        <v>700</v>
       </c>
       <c r="B176" t="s">
-        <v>526</v>
+        <v>701</v>
       </c>
       <c r="C176" t="s">
-        <v>527</v>
+        <v>702</v>
+      </c>
+      <c r="D176" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>528</v>
+        <v>704</v>
       </c>
       <c r="B177" t="s">
-        <v>529</v>
+        <v>705</v>
       </c>
       <c r="C177" t="s">
-        <v>530</v>
+        <v>706</v>
+      </c>
+      <c r="D177" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>531</v>
+        <v>708</v>
       </c>
       <c r="B178" t="s">
-        <v>532</v>
+        <v>709</v>
       </c>
       <c r="C178" t="s">
-        <v>533</v>
+        <v>710</v>
+      </c>
+      <c r="D178" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>534</v>
+        <v>712</v>
       </c>
       <c r="B179" t="s">
-        <v>535</v>
+        <v>713</v>
       </c>
       <c r="C179" t="s">
-        <v>536</v>
+        <v>714</v>
+      </c>
+      <c r="D179" t="s">
+        <v>715</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>537</v>
+        <v>716</v>
       </c>
       <c r="B180" t="s">
-        <v>538</v>
+        <v>717</v>
       </c>
       <c r="C180" t="s">
-        <v>539</v>
+        <v>718</v>
+      </c>
+      <c r="D180" t="s">
+        <v>719</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/currency-codes-iso-4217.xlsx
+++ b/xlsx/currency-codes-iso-4217.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="722">
+  <si>
+    <t xml:space="preserve">Version</t>
+  </si>
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -24,6 +27,9 @@
   </si>
   <si>
     <t xml:space="preserve">Numeric_Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4217:2015</t>
   </si>
   <si>
     <t xml:space="preserve">AFN</t>
@@ -2501,7 +2507,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2516,2511 +2522,3051 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="E20" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="E22" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="E23" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="E24" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D25" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>108</v>
+      </c>
+      <c r="E27" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>116</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D30" t="s">
-        <v>119</v>
+        <v>120</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C31" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="E32" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="E33" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D34" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D35" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D36" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="E36" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D37" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="E37" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D38" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="E38" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C39" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="E39" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D40" t="s">
-        <v>159</v>
+        <v>160</v>
+      </c>
+      <c r="E40" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D41" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="E41" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+      <c r="E42" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C43" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D43" t="s">
-        <v>171</v>
+        <v>172</v>
+      </c>
+      <c r="E43" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D44" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="E44" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D45" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="E45" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D46" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="E46" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C47" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="E47" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C48" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D48" t="s">
-        <v>191</v>
+        <v>192</v>
+      </c>
+      <c r="E48" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C49" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D49" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="E49" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D50" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="E50" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D51" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="E51" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D52" t="s">
-        <v>207</v>
+        <v>208</v>
+      </c>
+      <c r="E52" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>208</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C53" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s">
-        <v>211</v>
+        <v>212</v>
+      </c>
+      <c r="E53" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C54" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D54" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="E54" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D55" t="s">
-        <v>219</v>
+        <v>220</v>
+      </c>
+      <c r="E55" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>220</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D56" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="E56" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C57" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D57" t="s">
-        <v>227</v>
+        <v>228</v>
+      </c>
+      <c r="E57" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>228</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C58" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>232</v>
+      </c>
+      <c r="E58" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>232</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C59" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D59" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="E59" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>236</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C60" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D60" t="s">
-        <v>239</v>
+        <v>240</v>
+      </c>
+      <c r="E60" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>240</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C61" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D61" t="s">
-        <v>243</v>
+        <v>244</v>
+      </c>
+      <c r="E61" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>244</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C62" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D62" t="s">
-        <v>247</v>
+        <v>248</v>
+      </c>
+      <c r="E62" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>248</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C63" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D63" t="s">
-        <v>251</v>
+        <v>252</v>
+      </c>
+      <c r="E63" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>252</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C64" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D64" t="s">
-        <v>255</v>
+        <v>256</v>
+      </c>
+      <c r="E64" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>256</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C65" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D65" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="E65" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>260</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D66" t="s">
-        <v>263</v>
+        <v>264</v>
+      </c>
+      <c r="E66" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>264</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C67" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>268</v>
+      </c>
+      <c r="E67" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C68" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D68" t="s">
-        <v>271</v>
+        <v>272</v>
+      </c>
+      <c r="E68" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>272</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D69" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="E69" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>276</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C70" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D70" t="s">
-        <v>279</v>
+        <v>280</v>
+      </c>
+      <c r="E70" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>280</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C71" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D71" t="s">
-        <v>283</v>
+        <v>284</v>
+      </c>
+      <c r="E71" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>284</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C72" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D72" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="E72" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>288</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D73" t="s">
-        <v>291</v>
+        <v>292</v>
+      </c>
+      <c r="E73" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>292</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C74" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D74" t="s">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="E74" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>296</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C75" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D75" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="E75" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C76" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D76" t="s">
-        <v>303</v>
+        <v>304</v>
+      </c>
+      <c r="E76" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>304</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C77" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D77" t="s">
-        <v>307</v>
+        <v>308</v>
+      </c>
+      <c r="E77" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>308</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C78" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D78" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="E78" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>312</v>
+        <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C79" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D79" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="E79" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>316</v>
+        <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C80" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D80" t="s">
-        <v>319</v>
+        <v>320</v>
+      </c>
+      <c r="E80" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>320</v>
+        <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D81" t="s">
-        <v>323</v>
+        <v>324</v>
+      </c>
+      <c r="E81" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>324</v>
+        <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C82" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D82" t="s">
-        <v>327</v>
+        <v>328</v>
+      </c>
+      <c r="E82" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>328</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C83" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D83" t="s">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c r="E83" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>332</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C84" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D84" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="E84" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>336</v>
+        <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C85" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D85" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="E85" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>340</v>
+        <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C86" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D86" t="s">
-        <v>343</v>
+        <v>344</v>
+      </c>
+      <c r="E86" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>344</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C87" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D87" t="s">
-        <v>347</v>
+        <v>348</v>
+      </c>
+      <c r="E87" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>348</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C88" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D88" t="s">
-        <v>351</v>
+        <v>352</v>
+      </c>
+      <c r="E88" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>352</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C89" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D89" t="s">
-        <v>355</v>
+        <v>356</v>
+      </c>
+      <c r="E89" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>356</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C90" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D90" t="s">
-        <v>359</v>
+        <v>360</v>
+      </c>
+      <c r="E90" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>360</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C91" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D91" t="s">
-        <v>363</v>
+        <v>364</v>
+      </c>
+      <c r="E91" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>364</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C92" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D92" t="s">
-        <v>367</v>
+        <v>368</v>
+      </c>
+      <c r="E92" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>368</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C93" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D93" t="s">
-        <v>371</v>
+        <v>372</v>
+      </c>
+      <c r="E93" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>372</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C94" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D94" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="E94" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>376</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C95" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D95" t="s">
-        <v>379</v>
+        <v>380</v>
+      </c>
+      <c r="E95" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C96" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D96" t="s">
-        <v>383</v>
+        <v>384</v>
+      </c>
+      <c r="E96" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>384</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C97" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D97" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="E97" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>388</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C98" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D98" t="s">
-        <v>391</v>
+        <v>392</v>
+      </c>
+      <c r="E98" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>392</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C99" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D99" t="s">
-        <v>395</v>
+        <v>396</v>
+      </c>
+      <c r="E99" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>396</v>
+        <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C100" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D100" t="s">
-        <v>399</v>
+        <v>400</v>
+      </c>
+      <c r="E100" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>400</v>
+        <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C101" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D101" t="s">
-        <v>403</v>
+        <v>404</v>
+      </c>
+      <c r="E101" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>404</v>
+        <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C102" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D102" t="s">
-        <v>407</v>
+        <v>408</v>
+      </c>
+      <c r="E102" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>408</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C103" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D103" t="s">
-        <v>411</v>
+        <v>412</v>
+      </c>
+      <c r="E103" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>412</v>
+        <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C104" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D104" t="s">
-        <v>415</v>
+        <v>416</v>
+      </c>
+      <c r="E104" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>416</v>
+        <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C105" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D105" t="s">
-        <v>419</v>
+        <v>420</v>
+      </c>
+      <c r="E105" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>420</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C106" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D106" t="s">
-        <v>423</v>
+        <v>424</v>
+      </c>
+      <c r="E106" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>424</v>
+        <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C107" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D107" t="s">
-        <v>427</v>
+        <v>428</v>
+      </c>
+      <c r="E107" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>428</v>
+        <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C108" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D108" t="s">
-        <v>431</v>
+        <v>432</v>
+      </c>
+      <c r="E108" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>432</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C109" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D109" t="s">
-        <v>435</v>
+        <v>436</v>
+      </c>
+      <c r="E109" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>436</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C110" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D110" t="s">
-        <v>439</v>
+        <v>440</v>
+      </c>
+      <c r="E110" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C111" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D111" t="s">
-        <v>443</v>
+        <v>444</v>
+      </c>
+      <c r="E111" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>444</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C112" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D112" t="s">
-        <v>447</v>
+        <v>448</v>
+      </c>
+      <c r="E112" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>448</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C113" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D113" t="s">
-        <v>451</v>
+        <v>452</v>
+      </c>
+      <c r="E113" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>452</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C114" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D114" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="E114" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>456</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C115" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D115" t="s">
-        <v>459</v>
+        <v>460</v>
+      </c>
+      <c r="E115" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>460</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C116" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D116" t="s">
-        <v>463</v>
+        <v>464</v>
+      </c>
+      <c r="E116" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>464</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C117" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D117" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="E117" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>468</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C118" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D118" t="s">
-        <v>471</v>
+        <v>472</v>
+      </c>
+      <c r="E118" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>472</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C119" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D119" t="s">
-        <v>475</v>
+        <v>476</v>
+      </c>
+      <c r="E119" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C120" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D120" t="s">
-        <v>479</v>
+        <v>480</v>
+      </c>
+      <c r="E120" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>480</v>
+        <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C121" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D121" t="s">
-        <v>483</v>
+        <v>484</v>
+      </c>
+      <c r="E121" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>484</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C122" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D122" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+      <c r="E122" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>488</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C123" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D123" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="E123" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C124" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D124" t="s">
-        <v>495</v>
+        <v>496</v>
+      </c>
+      <c r="E124" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>496</v>
+        <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C125" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D125" t="s">
-        <v>499</v>
+        <v>500</v>
+      </c>
+      <c r="E125" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C126" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D126" t="s">
-        <v>503</v>
+        <v>504</v>
+      </c>
+      <c r="E126" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C127" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D127" t="s">
-        <v>507</v>
+        <v>508</v>
+      </c>
+      <c r="E127" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>508</v>
+        <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C128" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D128" t="s">
-        <v>511</v>
+        <v>512</v>
+      </c>
+      <c r="E128" t="s">
+        <v>513</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C129" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D129" t="s">
-        <v>515</v>
+        <v>516</v>
+      </c>
+      <c r="E129" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>516</v>
+        <v>5</v>
       </c>
       <c r="B130" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C130" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D130" t="s">
-        <v>519</v>
+        <v>520</v>
+      </c>
+      <c r="E130" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C131" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D131" t="s">
-        <v>523</v>
+        <v>524</v>
+      </c>
+      <c r="E131" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C132" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D132" t="s">
-        <v>527</v>
+        <v>528</v>
+      </c>
+      <c r="E132" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>528</v>
+        <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C133" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D133" t="s">
-        <v>531</v>
+        <v>532</v>
+      </c>
+      <c r="E133" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>532</v>
+        <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C134" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D134" t="s">
-        <v>535</v>
+        <v>536</v>
+      </c>
+      <c r="E134" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C135" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D135" t="s">
-        <v>539</v>
+        <v>540</v>
+      </c>
+      <c r="E135" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>540</v>
+        <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C136" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D136" t="s">
-        <v>543</v>
+        <v>544</v>
+      </c>
+      <c r="E136" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>544</v>
+        <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C137" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D137" t="s">
-        <v>547</v>
+        <v>548</v>
+      </c>
+      <c r="E137" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>548</v>
+        <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C138" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D138" t="s">
-        <v>551</v>
+        <v>552</v>
+      </c>
+      <c r="E138" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>552</v>
+        <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C139" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D139" t="s">
-        <v>555</v>
+        <v>556</v>
+      </c>
+      <c r="E139" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>556</v>
+        <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C140" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D140" t="s">
-        <v>559</v>
+        <v>560</v>
+      </c>
+      <c r="E140" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>560</v>
+        <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C141" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D141" t="s">
-        <v>563</v>
+        <v>564</v>
+      </c>
+      <c r="E141" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>564</v>
+        <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C142" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D142" t="s">
-        <v>567</v>
+        <v>568</v>
+      </c>
+      <c r="E142" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>568</v>
+        <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C143" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D143" t="s">
-        <v>571</v>
+        <v>572</v>
+      </c>
+      <c r="E143" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>572</v>
+        <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C144" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D144" t="s">
-        <v>575</v>
+        <v>576</v>
+      </c>
+      <c r="E144" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>576</v>
+        <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C145" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D145" t="s">
-        <v>579</v>
+        <v>580</v>
+      </c>
+      <c r="E145" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>580</v>
+        <v>5</v>
       </c>
       <c r="B146" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C146" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D146" t="s">
-        <v>583</v>
+        <v>584</v>
+      </c>
+      <c r="E146" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>584</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C147" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D147" t="s">
-        <v>587</v>
+        <v>588</v>
+      </c>
+      <c r="E147" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="B148" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C148" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D148" t="s">
-        <v>591</v>
+        <v>592</v>
+      </c>
+      <c r="E148" t="s">
+        <v>593</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>592</v>
+        <v>5</v>
       </c>
       <c r="B149" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C149" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D149" t="s">
-        <v>595</v>
+        <v>596</v>
+      </c>
+      <c r="E149" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>596</v>
+        <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C150" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D150" t="s">
-        <v>599</v>
+        <v>600</v>
+      </c>
+      <c r="E150" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C151" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D151" t="s">
-        <v>603</v>
+        <v>604</v>
+      </c>
+      <c r="E151" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>604</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C152" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D152" t="s">
-        <v>607</v>
+        <v>608</v>
+      </c>
+      <c r="E152" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>608</v>
+        <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C153" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D153" t="s">
-        <v>611</v>
+        <v>612</v>
+      </c>
+      <c r="E153" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>612</v>
+        <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C154" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D154" t="s">
-        <v>615</v>
+        <v>616</v>
+      </c>
+      <c r="E154" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>616</v>
+        <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C155" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D155" t="s">
-        <v>619</v>
+        <v>620</v>
+      </c>
+      <c r="E155" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>620</v>
+        <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C156" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D156" t="s">
-        <v>623</v>
+        <v>624</v>
+      </c>
+      <c r="E156" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>624</v>
+        <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C157" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D157" t="s">
-        <v>627</v>
+        <v>628</v>
+      </c>
+      <c r="E157" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>628</v>
+        <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C158" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D158" t="s">
-        <v>631</v>
+        <v>632</v>
+      </c>
+      <c r="E158" t="s">
+        <v>633</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>632</v>
+        <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C159" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D159" t="s">
-        <v>635</v>
+        <v>636</v>
+      </c>
+      <c r="E159" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>636</v>
+        <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C160" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D160" t="s">
-        <v>639</v>
+        <v>640</v>
+      </c>
+      <c r="E160" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>640</v>
+        <v>5</v>
       </c>
       <c r="B161" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C161" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D161" t="s">
-        <v>643</v>
+        <v>644</v>
+      </c>
+      <c r="E161" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>644</v>
+        <v>5</v>
       </c>
       <c r="B162" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C162" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D162" t="s">
-        <v>647</v>
+        <v>648</v>
+      </c>
+      <c r="E162" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>648</v>
+        <v>5</v>
       </c>
       <c r="B163" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C163" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D163" t="s">
-        <v>651</v>
+        <v>652</v>
+      </c>
+      <c r="E163" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>652</v>
+        <v>5</v>
       </c>
       <c r="B164" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C164" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D164" t="s">
-        <v>655</v>
+        <v>656</v>
+      </c>
+      <c r="E164" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>656</v>
+        <v>5</v>
       </c>
       <c r="B165" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C165" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D165" t="s">
-        <v>659</v>
+        <v>660</v>
+      </c>
+      <c r="E165" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>660</v>
+        <v>5</v>
       </c>
       <c r="B166" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C166" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D166" t="s">
-        <v>663</v>
+        <v>664</v>
+      </c>
+      <c r="E166" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>664</v>
+        <v>5</v>
       </c>
       <c r="B167" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C167" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D167" t="s">
-        <v>667</v>
+        <v>668</v>
+      </c>
+      <c r="E167" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>668</v>
+        <v>5</v>
       </c>
       <c r="B168" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C168" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D168" t="s">
-        <v>671</v>
+        <v>672</v>
+      </c>
+      <c r="E168" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>672</v>
+        <v>5</v>
       </c>
       <c r="B169" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C169" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D169" t="s">
-        <v>675</v>
+        <v>676</v>
+      </c>
+      <c r="E169" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>676</v>
+        <v>5</v>
       </c>
       <c r="B170" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C170" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D170" t="s">
-        <v>679</v>
+        <v>680</v>
+      </c>
+      <c r="E170" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>680</v>
+        <v>5</v>
       </c>
       <c r="B171" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C171" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D171" t="s">
-        <v>683</v>
+        <v>684</v>
+      </c>
+      <c r="E171" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>684</v>
+        <v>5</v>
       </c>
       <c r="B172" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C172" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D172" t="s">
-        <v>687</v>
+        <v>688</v>
+      </c>
+      <c r="E172" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>688</v>
+        <v>5</v>
       </c>
       <c r="B173" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C173" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D173" t="s">
-        <v>691</v>
+        <v>692</v>
+      </c>
+      <c r="E173" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>692</v>
+        <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C174" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D174" t="s">
-        <v>695</v>
+        <v>696</v>
+      </c>
+      <c r="E174" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>696</v>
+        <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C175" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D175" t="s">
-        <v>699</v>
+        <v>700</v>
+      </c>
+      <c r="E175" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>700</v>
+        <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C176" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D176" t="s">
-        <v>703</v>
+        <v>704</v>
+      </c>
+      <c r="E176" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>704</v>
+        <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C177" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D177" t="s">
-        <v>707</v>
+        <v>708</v>
+      </c>
+      <c r="E177" t="s">
+        <v>709</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>708</v>
+        <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C178" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D178" t="s">
-        <v>711</v>
+        <v>712</v>
+      </c>
+      <c r="E178" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>712</v>
+        <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C179" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D179" t="s">
-        <v>715</v>
+        <v>716</v>
+      </c>
+      <c r="E179" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>716</v>
+        <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C180" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D180" t="s">
-        <v>719</v>
+        <v>720</v>
+      </c>
+      <c r="E180" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
